--- a/data/trans_bre/P40_R-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P40_R-Clase-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-9.91310941153913</v>
+        <v>-9.722865128960247</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-7.236903803244041</v>
+        <v>-7.28201614114756</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-5.780229998513751</v>
+        <v>-6.076674214413027</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-6.24967945592215</v>
+        <v>-6.60301770716295</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.110862165975222</v>
+        <v>-0.1092653452580505</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.08010737833811661</v>
+        <v>-0.08031204144634189</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.06265952280558704</v>
+        <v>-0.06602944294133958</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.06929631019110573</v>
+        <v>-0.07490825851773263</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.7357553899750761</v>
+        <v>1.020758173587916</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.53834173241804</v>
+        <v>3.606214994380798</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.064765913892229</v>
+        <v>3.245870912954413</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.622358484143936</v>
+        <v>2.157040938473792</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.00801262452260857</v>
+        <v>0.01153360862404291</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.04099156187693376</v>
+        <v>0.04198415603360323</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.03579010133543445</v>
+        <v>0.0366576924550114</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.01948801574481255</v>
+        <v>0.02513022483878714</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>-3.774891568595973</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-4.076467846566811</v>
+        <v>-4.0764678465668</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.05157267030669631</v>
@@ -749,7 +749,7 @@
         <v>-0.04245977998395982</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.0474950099843309</v>
+        <v>-0.04749500998433077</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-10.04209319120468</v>
+        <v>-10.10648887299056</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-8.076888753107498</v>
+        <v>-8.115911203167176</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-9.116759128018703</v>
+        <v>-9.627161129460159</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-8.556023924765013</v>
+        <v>-8.522129392707026</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1118933811221479</v>
+        <v>-0.1135610154130552</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.09082240241092306</v>
+        <v>-0.09174032380462299</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1010500587969923</v>
+        <v>-0.1075297204846753</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.09831638135689789</v>
+        <v>-0.09782521458915869</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.791106214491235</v>
+        <v>1.106738101015478</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>2.550636382163296</v>
+        <v>2.782709007579115</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.860137086713211</v>
+        <v>1.589431848339552</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3847916118940845</v>
+        <v>0.2467335185327197</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.009755491879953473</v>
+        <v>0.01268992071106008</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02841258593035207</v>
+        <v>0.03298259689883033</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.02086749900977701</v>
+        <v>0.01503642899219619</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.004511007588622889</v>
+        <v>0.002110658825516243</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>-11.94002955478274</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-9.090313827752105</v>
+        <v>-9.090313827752095</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.136707496067124</v>
@@ -849,7 +849,7 @@
         <v>-0.1458103193311674</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.1153878817386878</v>
+        <v>-0.1153878817386877</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-19.37860373855574</v>
+        <v>-18.62780876410127</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-8.342369456701274</v>
+        <v>-8.111310582140801</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-21.00959459487447</v>
+        <v>-20.75581604404741</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-16.11217110510208</v>
+        <v>-15.47933513542573</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.2304522206193414</v>
+        <v>-0.2251607923073261</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.1049635164693925</v>
+        <v>-0.1009197543556765</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.2540535049371113</v>
+        <v>-0.2510642374346573</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.19814238453216</v>
+        <v>-0.1928398959595292</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-4.135275131832761</v>
+        <v>-3.613826007100638</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.729516186316659</v>
+        <v>4.429470045144782</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-4.251239868656127</v>
+        <v>-3.516863785725862</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-2.762859088063021</v>
+        <v>-2.974961059869327</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>-0.050800353047434</v>
+        <v>-0.04553813036540195</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.06028789491311554</v>
+        <v>0.05697971154096889</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>-0.05246554705743236</v>
+        <v>-0.04451488183247111</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>-0.03603976010985119</v>
+        <v>-0.04059983568736594</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-8.805070826503401</v>
+        <v>-9.059624285509349</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-3.9537798718839</v>
+        <v>-3.103051901222277</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-5.749607847333889</v>
+        <v>-5.863115347175907</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-5.425852149477989</v>
+        <v>-5.295295623856521</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1081959711564105</v>
+        <v>-0.111901538198097</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.04995346867431885</v>
+        <v>-0.03822717846106189</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.06900876766567751</v>
+        <v>-0.07074324667046256</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.06748072771272878</v>
+        <v>-0.06578765030753379</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>-0.7147803270542856</v>
+        <v>-1.30379666243691</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>4.485114768498959</v>
+        <v>4.676273996397792</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1.504455967323279</v>
+        <v>1.502174298357649</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.263194038110339</v>
+        <v>1.327169112948164</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.009044361081498708</v>
+        <v>-0.01659297928656853</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.0580681634520813</v>
+        <v>0.06093629692087476</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.0188855634896535</v>
+        <v>0.0186294891303916</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.01651517079502562</v>
+        <v>0.01712794919237547</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>-9.412763369312261</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-15.23243882173539</v>
+        <v>-15.23243882173538</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.1282895901038046</v>
@@ -1049,7 +1049,7 @@
         <v>-0.1216401470229249</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>-0.1960056226148305</v>
+        <v>-0.1960056226148303</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-16.0128500226334</v>
+        <v>-16.03886558941932</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-23.07503778348439</v>
+        <v>-23.22582573814156</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-14.36162410978321</v>
+        <v>-14.16377219980112</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-19.57589274218495</v>
+        <v>-19.34209892776373</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.1960159520900476</v>
+        <v>-0.1952586775994495</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.2705799882050586</v>
+        <v>-0.2709892982221104</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.1807059725903445</v>
+        <v>-0.17795879257585</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.2446388093495008</v>
+        <v>-0.2424370395420156</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-4.637595455710866</v>
+        <v>-3.757626998030985</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-13.44839036998558</v>
+        <v>-13.77372476308575</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-4.586480909624773</v>
+        <v>-3.979130143319304</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-10.65245053015442</v>
+        <v>-10.69887109628331</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>-0.06163427270349615</v>
+        <v>-0.0536431815718356</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>-0.1650309037374491</v>
+        <v>-0.1685863474712565</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>-0.06043114613138238</v>
+        <v>-0.05340725755644092</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>-0.1426775891211034</v>
+        <v>-0.1440944936556706</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>-25.67235005110227</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>-24.73417808962474</v>
+        <v>-24.73417808962473</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>-0.3335579909168148</v>
@@ -1149,7 +1149,7 @@
         <v>-0.2720582289902957</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>-0.2695861222385232</v>
+        <v>-0.2695861222385231</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-35.23258960356681</v>
+        <v>-35.19159110356061</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-34.32751532832835</v>
+        <v>-34.50522190760049</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-29.72763900656854</v>
+        <v>-29.25283279781408</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-29.30180811256932</v>
+        <v>-29.68320848569731</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.3647112505016652</v>
+        <v>-0.3639188809617682</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.3523543694029447</v>
+        <v>-0.3522625001911349</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.3099819214129728</v>
+        <v>-0.3073312871689466</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.3106510588157568</v>
+        <v>-0.3155326428582655</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>-28.17790206772263</v>
+        <v>-28.24892322673425</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>-26.6912725988248</v>
+        <v>-26.44842620553834</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>-21.53673133937332</v>
+        <v>-21.1431237426984</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>-18.41627703444182</v>
+        <v>-18.52209833619393</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.2997844217737424</v>
+        <v>-0.3007603678459997</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.2819277027056195</v>
+        <v>-0.279465620099293</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>-0.2325323665305068</v>
+        <v>-0.2317619292056144</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.213692720312413</v>
+        <v>-0.214402403175569</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>-9.118123411356216</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>-9.18043846628558</v>
+        <v>-9.180438466285601</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>-0.1492045600059717</v>
@@ -1249,7 +1249,7 @@
         <v>-0.1084863321304432</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>-0.112702696963139</v>
+        <v>-0.1127026969631392</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-14.84175103047147</v>
+        <v>-14.59304542499756</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-12.10389306103258</v>
+        <v>-11.90240539232919</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-10.88901393598607</v>
+        <v>-11.19548389513885</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-10.93086414300045</v>
+        <v>-11.00632502821037</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.1745723964389884</v>
+        <v>-0.171991258710952</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.1451454932830751</v>
+        <v>-0.1421154625483037</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.1287450244845067</v>
+        <v>-0.1325772620905759</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.1329545276998711</v>
+        <v>-0.133923233341225</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-10.56013768227366</v>
+        <v>-10.58982242944075</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-7.858497010176603</v>
+        <v>-8.024424110490457</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-6.832635056167148</v>
+        <v>-7.250437283226607</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-7.420222054792212</v>
+        <v>-7.378266782976691</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>-0.12743715990265</v>
+        <v>-0.1270780953123389</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>-0.09638609907437098</v>
+        <v>-0.09828327961747091</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>-0.08207807112573492</v>
+        <v>-0.08753250372255746</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>-0.09227448864313023</v>
+        <v>-0.09169023391773626</v>
       </c>
     </row>
     <row r="25">
